--- a/data/trans_dic/P68-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P68-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.284672380791894</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3298895990846804</v>
+        <v>0.3298895990846803</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2092140815886293</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2832086967368698</v>
+        <v>0.2853298437506821</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2461102812193618</v>
+        <v>0.2440884527448555</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2261219783527958</v>
+        <v>0.2327758010344793</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2592840470779681</v>
+        <v>0.2514709704754247</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1552768908526703</v>
+        <v>0.1600079352405575</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2514057709177288</v>
+        <v>0.2518487702678285</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1818259223322189</v>
+        <v>0.1805623253574737</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2799612530658204</v>
+        <v>0.2781706683031011</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2388800771917472</v>
+        <v>0.2412358491054785</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2639550347255447</v>
+        <v>0.2644319720364566</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2264534296867039</v>
+        <v>0.2225997427503547</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2815185734296475</v>
+        <v>0.2856754057113</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4120602426737435</v>
+        <v>0.4160516433697528</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3577219131876439</v>
+        <v>0.3616832347524159</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3403845402167266</v>
+        <v>0.3408372161248115</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4126049590688626</v>
+        <v>0.4081225780538329</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2723917432974964</v>
+        <v>0.2706801793800854</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3757410794874157</v>
+        <v>0.3804698967235986</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2841356744142993</v>
+        <v>0.2834062668619862</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4208636262815116</v>
+        <v>0.4143807574968454</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3235899866194242</v>
+        <v>0.3258020365113207</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3543703907099463</v>
+        <v>0.3522055494280099</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.298442782502207</v>
+        <v>0.2985725917393903</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3893360171442816</v>
+        <v>0.3914704714322492</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.2842278075555461</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2585870182990195</v>
+        <v>0.2585870182990194</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2275802269325362</v>
@@ -821,7 +821,7 @@
         <v>0.2234836858488496</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.299284419554684</v>
+        <v>0.2992844195546839</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2564743510568848</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2349445309831192</v>
+        <v>0.2355965025426668</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.198321136644774</v>
+        <v>0.1974752325034742</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2398787605085816</v>
+        <v>0.2424899926746724</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.220884034019519</v>
+        <v>0.2150768205981311</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1804028954263284</v>
+        <v>0.1833338945920764</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1892262329246571</v>
+        <v>0.1883114615515225</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1728919647165699</v>
+        <v>0.176645576738528</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2570575169053966</v>
+        <v>0.2588981616924927</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2288562799999638</v>
+        <v>0.2296633540052818</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2063734583151294</v>
+        <v>0.2057994901724472</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.225490434213671</v>
+        <v>0.2239102731767932</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2461887162279622</v>
+        <v>0.2421709490277905</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3070682226059959</v>
+        <v>0.3037311640907511</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2847368884220455</v>
+        <v>0.2879115062443391</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3318772539597296</v>
+        <v>0.3312251069514444</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3092284630853814</v>
+        <v>0.3052862189878576</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2755489529452466</v>
+        <v>0.2802775245860123</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2969322489904915</v>
+        <v>0.3002546023790795</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.281106422098917</v>
+        <v>0.2780364376225213</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.346992896707959</v>
+        <v>0.3470720204250336</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2845567630030733</v>
+        <v>0.2857431098709828</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2746564225408086</v>
+        <v>0.2762952641529167</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2950104572157076</v>
+        <v>0.2960423029131682</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3108155913191545</v>
+        <v>0.3074975263378543</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1804719994289917</v>
+        <v>0.1800327584877081</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2041713241023267</v>
+        <v>0.1993508632183117</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1570765935158728</v>
+        <v>0.1570796331292977</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1252992886248072</v>
+        <v>0.125093176507578</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.178817194094689</v>
+        <v>0.1747757919897873</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.11665722452638</v>
+        <v>0.1191567209019254</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1201279056421843</v>
+        <v>0.1216413508515711</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1643502848011157</v>
+        <v>0.1624189694642413</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1906440373387933</v>
+        <v>0.1862749713355143</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1766175561790964</v>
+        <v>0.1782124846718153</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1525824913623576</v>
+        <v>0.1531169219551158</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.149760484305761</v>
+        <v>0.151834330220717</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2439356380665915</v>
+        <v>0.2462199537343201</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2837849405582888</v>
+        <v>0.2798167054889718</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2333051612940396</v>
+        <v>0.2344621377561643</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1894286786231885</v>
+        <v>0.1891111196884561</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2691153222783216</v>
+        <v>0.2638661471500995</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2085523524103118</v>
+        <v>0.2051221825024341</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2078664787275174</v>
+        <v>0.2050779156362525</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2233679294073858</v>
+        <v>0.2244360825917905</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2409681651204013</v>
+        <v>0.2403191749710765</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2395730918686056</v>
+        <v>0.2437542315783766</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2095108562842663</v>
+        <v>0.2096754072195184</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1942950251469724</v>
+        <v>0.1941008144837233</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1804748852851401</v>
+        <v>0.1766609185434045</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1240879560865692</v>
+        <v>0.1240191011849964</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1978631925561559</v>
+        <v>0.1954312950454265</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1348313484142369</v>
+        <v>0.1361259987086949</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1372552670583657</v>
+        <v>0.1453073606222444</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.147645766559758</v>
+        <v>0.1490626178169487</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1808885762659477</v>
+        <v>0.1797011176913476</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.149386690964601</v>
+        <v>0.149653808760974</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1749024054654667</v>
+        <v>0.1782279928591355</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1461823590017395</v>
+        <v>0.1441188266821702</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2028456690970463</v>
+        <v>0.2047629807256047</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.148059877223222</v>
+        <v>0.1476008865618514</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2749545306477928</v>
+        <v>0.2792796158314898</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2078268187618895</v>
+        <v>0.2160195619057867</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3105980198249058</v>
+        <v>0.3072793320908101</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2033111844780814</v>
+        <v>0.2026471580540579</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2618609615193767</v>
+        <v>0.2643948434715394</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2742963859881588</v>
+        <v>0.275250411583178</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3136073824973124</v>
+        <v>0.3080431990233832</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2149115346335967</v>
+        <v>0.2092262240064139</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2513586441584187</v>
+        <v>0.2535119396741788</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2220791128344362</v>
+        <v>0.2141807262533922</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2858423461984991</v>
+        <v>0.2868704489573644</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1981193096982573</v>
+        <v>0.1949009272805949</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2287551340338536</v>
+        <v>0.2296697785564101</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2140968455578427</v>
+        <v>0.2103784527402318</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2232825468092328</v>
+        <v>0.2254386597046415</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1831940628214502</v>
+        <v>0.1835295780530631</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1903691484076095</v>
+        <v>0.1909396358878558</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2001899099050376</v>
+        <v>0.1995646448360729</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1832841962573031</v>
+        <v>0.188551470116963</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2115361407772577</v>
+        <v>0.2131396318580242</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2223597304994448</v>
+        <v>0.2221118027923413</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2152129202359519</v>
+        <v>0.213411146067683</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2155567016603907</v>
+        <v>0.2159386330564317</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2016525539352809</v>
+        <v>0.2017855066026263</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.26956715049277</v>
+        <v>0.2723577106890546</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2573983737744522</v>
+        <v>0.2569661078473525</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2698840896684847</v>
+        <v>0.27107949654431</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2237937322467449</v>
+        <v>0.2255398950521385</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2419152711204991</v>
+        <v>0.2429627761588407</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2546570936882792</v>
+        <v>0.2544799000773965</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.23380201608937</v>
+        <v>0.2400859162336727</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2512364802106218</v>
+        <v>0.2509623984954107</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2547851704931426</v>
+        <v>0.2546107762780614</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2511819428151504</v>
+        <v>0.2498719255013328</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2490181179410651</v>
+        <v>0.2511223269268955</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2294684316768094</v>
+        <v>0.2302895566316711</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>69688</v>
+        <v>70210</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>68710</v>
+        <v>68146</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>65922</v>
+        <v>67862</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>45761</v>
+        <v>44382</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>33745</v>
+        <v>34774</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>56147</v>
+        <v>56246</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>50036</v>
+        <v>49689</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>47054</v>
+        <v>46753</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>110695</v>
+        <v>111787</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>132642</v>
+        <v>132882</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>128336</v>
+        <v>126152</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>97000</v>
+        <v>98433</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>101394</v>
+        <v>102377</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>99871</v>
+        <v>100977</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>99234</v>
+        <v>99366</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>72820</v>
+        <v>72029</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>59197</v>
+        <v>58825</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>83916</v>
+        <v>84972</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>78191</v>
+        <v>77990</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>70736</v>
+        <v>69646</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>149949</v>
+        <v>150974</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>178078</v>
+        <v>176990</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>169134</v>
+        <v>169208</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>134150</v>
+        <v>134885</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>150383</v>
+        <v>150800</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>75570</v>
+        <v>75248</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>92773</v>
+        <v>93783</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>108570</v>
+        <v>105716</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>51913</v>
+        <v>52757</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>48524</v>
+        <v>48289</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>46527</v>
+        <v>47537</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>89898</v>
+        <v>90542</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>212342</v>
+        <v>213091</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>131560</v>
+        <v>131194</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>147890</v>
+        <v>146854</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>207105</v>
+        <v>203725</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>196548</v>
+        <v>194412</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>108499</v>
+        <v>109708</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>128354</v>
+        <v>128101</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>151994</v>
+        <v>150056</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>79293</v>
+        <v>80653</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>76143</v>
+        <v>76995</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>75649</v>
+        <v>74823</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>121351</v>
+        <v>121378</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>264023</v>
+        <v>265124</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>175089</v>
+        <v>176134</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>193486</v>
+        <v>194163</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>261472</v>
+        <v>258681</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>125592</v>
+        <v>125286</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>93065</v>
+        <v>90868</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>71482</v>
+        <v>71484</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>77783</v>
+        <v>77655</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>62949</v>
+        <v>61526</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>32508</v>
+        <v>33204</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>34800</v>
+        <v>35239</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>80199</v>
+        <v>79256</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>199783</v>
+        <v>195204</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>129722</v>
+        <v>130894</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>113640</v>
+        <v>114038</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>166047</v>
+        <v>168346</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>169757</v>
+        <v>171346</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>129355</v>
+        <v>127546</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>106173</v>
+        <v>106699</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>117592</v>
+        <v>117395</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>94736</v>
+        <v>92888</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>58116</v>
+        <v>57160</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>60218</v>
+        <v>59410</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>108998</v>
+        <v>109519</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>252519</v>
+        <v>251839</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>175962</v>
+        <v>179033</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>156039</v>
+        <v>156161</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>215424</v>
+        <v>215209</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>54920</v>
+        <v>53759</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>36655</v>
+        <v>36634</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>53431</v>
+        <v>52774</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>79178</v>
+        <v>79938</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>21931</v>
+        <v>23218</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>27387</v>
+        <v>27650</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>34888</v>
+        <v>34659</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>68577</v>
+        <v>68700</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>81170</v>
+        <v>82714</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>70297</v>
+        <v>69305</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>93899</v>
+        <v>94787</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>154915</v>
+        <v>154435</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>83671</v>
+        <v>84987</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>61390</v>
+        <v>63810</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>83874</v>
+        <v>82978</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>119392</v>
+        <v>119002</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>41841</v>
+        <v>42246</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>50880</v>
+        <v>51057</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>60485</v>
+        <v>59412</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>98657</v>
+        <v>96047</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>116653</v>
+        <v>117652</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>106795</v>
+        <v>102997</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>132319</v>
+        <v>132795</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>207292</v>
+        <v>203924</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>431514</v>
+        <v>433239</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>302186</v>
+        <v>296938</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>313356</v>
+        <v>316382</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>343677</v>
+        <v>344306</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>193586</v>
+        <v>194166</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>188964</v>
+        <v>188374</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>188208</v>
+        <v>193617</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>309864</v>
+        <v>312213</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>645567</v>
+        <v>644847</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>506906</v>
+        <v>502662</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>523861</v>
+        <v>524789</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>673692</v>
+        <v>674136</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>508500</v>
+        <v>513764</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>363304</v>
+        <v>362694</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>378757</v>
+        <v>380434</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>419843</v>
+        <v>423119</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>246003</v>
+        <v>247068</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>240377</v>
+        <v>240209</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>240083</v>
+        <v>246536</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>368018</v>
+        <v>367617</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>739706</v>
+        <v>739200</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>591627</v>
+        <v>588541</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>605181</v>
+        <v>610295</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>766621</v>
+        <v>769364</v>
       </c>
     </row>
     <row r="24">
